--- a/Results_Figures_1-3_(editable).xlsx
+++ b/Results_Figures_1-3_(editable).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shan9\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://saramorgan-my.sharepoint.com/personal/elise_ericlowconsulting_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AAD6EC-8375-4942-8F93-B1EF9DF8D4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FA46C45-4E27-4759-96B4-A043FCC81811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1660" windowWidth="28800" windowHeight="15370" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results table" sheetId="1" r:id="rId1"/>
@@ -949,52 +949,56 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$A$2:$A$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>American Cancer Society</c:v>
+                  <c:v>Agency for Healthcare Quality Research</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Agency for Healthcare Quality Research</c:v>
+                  <c:v>Centers for Disease Control and Prevention</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Centers for Disease Control and Prevention</c:v>
+                  <c:v>Leukemia and Lymphoma Society</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Leukemia and Lymphoma Society</c:v>
+                  <c:v>Bill and Melinda Gates Foundation</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Bill and Melinda Gates Foundation</c:v>
+                  <c:v>Alzheimer's Assosciation </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Alzheimer's Assosciation </c:v>
+                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
+                  <c:v>American Heart Association</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>American Heart Association</c:v>
+                  <c:v>JDRF International</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>JDRF International</c:v>
+                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
+                  <c:v>Susan G. Komen</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Susan G. Komen</c:v>
+                  <c:v>Food and Drug Administration</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Food and Drug Administration</c:v>
+                  <c:v>Patient Centered Outcomes Research Institute</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Patient Centered Outcomes Research Institute</c:v>
+                  <c:v>Department of Veteran's Affairs</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Department of Veteran's Affairs</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>National Institutes of Health</c:v>
                 </c:pt>
               </c:strCache>
@@ -1002,10 +1006,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$B$2:$B$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$B$2:$B$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$B$3:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1022,7 +1033,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -1046,9 +1057,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1075,52 +1083,56 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$A$2:$A$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>American Cancer Society</c:v>
+                  <c:v>Agency for Healthcare Quality Research</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Agency for Healthcare Quality Research</c:v>
+                  <c:v>Centers for Disease Control and Prevention</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Centers for Disease Control and Prevention</c:v>
+                  <c:v>Leukemia and Lymphoma Society</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Leukemia and Lymphoma Society</c:v>
+                  <c:v>Bill and Melinda Gates Foundation</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Bill and Melinda Gates Foundation</c:v>
+                  <c:v>Alzheimer's Assosciation </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Alzheimer's Assosciation </c:v>
+                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
+                  <c:v>American Heart Association</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>American Heart Association</c:v>
+                  <c:v>JDRF International</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>JDRF International</c:v>
+                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
+                  <c:v>Susan G. Komen</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Susan G. Komen</c:v>
+                  <c:v>Food and Drug Administration</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Food and Drug Administration</c:v>
+                  <c:v>Patient Centered Outcomes Research Institute</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Patient Centered Outcomes Research Institute</c:v>
+                  <c:v>Department of Veteran's Affairs</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Department of Veteran's Affairs</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>National Institutes of Health</c:v>
                 </c:pt>
               </c:strCache>
@@ -1128,10 +1140,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$C$2:$C$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$C$2:$C$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$C$3:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1154,13 +1173,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
@@ -1172,9 +1191,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1201,52 +1217,56 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$A$2:$A$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>American Cancer Society</c:v>
+                  <c:v>Agency for Healthcare Quality Research</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Agency for Healthcare Quality Research</c:v>
+                  <c:v>Centers for Disease Control and Prevention</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Centers for Disease Control and Prevention</c:v>
+                  <c:v>Leukemia and Lymphoma Society</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Leukemia and Lymphoma Society</c:v>
+                  <c:v>Bill and Melinda Gates Foundation</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Bill and Melinda Gates Foundation</c:v>
+                  <c:v>Alzheimer's Assosciation </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Alzheimer's Assosciation </c:v>
+                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
+                  <c:v>American Heart Association</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>American Heart Association</c:v>
+                  <c:v>JDRF International</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>JDRF International</c:v>
+                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
+                  <c:v>Susan G. Komen</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Susan G. Komen</c:v>
+                  <c:v>Food and Drug Administration</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Food and Drug Administration</c:v>
+                  <c:v>Patient Centered Outcomes Research Institute</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Patient Centered Outcomes Research Institute</c:v>
+                  <c:v>Department of Veteran's Affairs</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Department of Veteran's Affairs</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>National Institutes of Health</c:v>
                 </c:pt>
               </c:strCache>
@@ -1254,10 +1274,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$D$2:$D$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$D$2:$D$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$D$3:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1283,7 +1310,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -1298,9 +1325,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1327,52 +1351,56 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$A$2:$A$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>American Cancer Society</c:v>
+                  <c:v>Agency for Healthcare Quality Research</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Agency for Healthcare Quality Research</c:v>
+                  <c:v>Centers for Disease Control and Prevention</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Centers for Disease Control and Prevention</c:v>
+                  <c:v>Leukemia and Lymphoma Society</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Leukemia and Lymphoma Society</c:v>
+                  <c:v>Bill and Melinda Gates Foundation</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Bill and Melinda Gates Foundation</c:v>
+                  <c:v>Alzheimer's Assosciation </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Alzheimer's Assosciation </c:v>
+                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
+                  <c:v>American Heart Association</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>American Heart Association</c:v>
+                  <c:v>JDRF International</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>JDRF International</c:v>
+                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
+                  <c:v>Susan G. Komen</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Susan G. Komen</c:v>
+                  <c:v>Food and Drug Administration</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Food and Drug Administration</c:v>
+                  <c:v>Patient Centered Outcomes Research Institute</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Patient Centered Outcomes Research Institute</c:v>
+                  <c:v>Department of Veteran's Affairs</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Department of Veteran's Affairs</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>National Institutes of Health</c:v>
                 </c:pt>
               </c:strCache>
@@ -1380,10 +1408,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$E$2:$E$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$E$2:$E$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$E$3:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1415,18 +1450,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1455,52 +1487,56 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$A$2:$A$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>American Cancer Society</c:v>
+                  <c:v>Agency for Healthcare Quality Research</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Agency for Healthcare Quality Research</c:v>
+                  <c:v>Centers for Disease Control and Prevention</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Centers for Disease Control and Prevention</c:v>
+                  <c:v>Leukemia and Lymphoma Society</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Leukemia and Lymphoma Society</c:v>
+                  <c:v>Bill and Melinda Gates Foundation</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Bill and Melinda Gates Foundation</c:v>
+                  <c:v>Alzheimer's Assosciation </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Alzheimer's Assosciation </c:v>
+                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
+                  <c:v>American Heart Association</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>American Heart Association</c:v>
+                  <c:v>JDRF International</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>JDRF International</c:v>
+                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
+                  <c:v>Susan G. Komen</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Susan G. Komen</c:v>
+                  <c:v>Food and Drug Administration</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Food and Drug Administration</c:v>
+                  <c:v>Patient Centered Outcomes Research Institute</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Patient Centered Outcomes Research Institute</c:v>
+                  <c:v>Department of Veteran's Affairs</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Department of Veteran's Affairs</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>National Institutes of Health</c:v>
                 </c:pt>
               </c:strCache>
@@ -1508,10 +1544,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$F$2:$F$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$F$2:$F$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$F$3:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1525,13 +1568,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -1540,7 +1583,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1552,9 +1595,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1583,52 +1623,56 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$A$2:$A$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>American Cancer Society</c:v>
+                  <c:v>Agency for Healthcare Quality Research</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Agency for Healthcare Quality Research</c:v>
+                  <c:v>Centers for Disease Control and Prevention</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Centers for Disease Control and Prevention</c:v>
+                  <c:v>Leukemia and Lymphoma Society</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Leukemia and Lymphoma Society</c:v>
+                  <c:v>Bill and Melinda Gates Foundation</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Bill and Melinda Gates Foundation</c:v>
+                  <c:v>Alzheimer's Assosciation </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Alzheimer's Assosciation </c:v>
+                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
+                  <c:v>American Heart Association</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>American Heart Association</c:v>
+                  <c:v>JDRF International</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>JDRF International</c:v>
+                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
+                  <c:v>Susan G. Komen</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Susan G. Komen</c:v>
+                  <c:v>Food and Drug Administration</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Food and Drug Administration</c:v>
+                  <c:v>Patient Centered Outcomes Research Institute</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Patient Centered Outcomes Research Institute</c:v>
+                  <c:v>Department of Veteran's Affairs</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Department of Veteran's Affairs</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>National Institutes of Health</c:v>
                 </c:pt>
               </c:strCache>
@@ -1636,10 +1680,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$G$2:$G$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$G$2:$G$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$G$3:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1674,15 +1725,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1711,52 +1759,56 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$A$2:$A$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>American Cancer Society</c:v>
+                  <c:v>Agency for Healthcare Quality Research</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Agency for Healthcare Quality Research</c:v>
+                  <c:v>Centers for Disease Control and Prevention</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Centers for Disease Control and Prevention</c:v>
+                  <c:v>Leukemia and Lymphoma Society</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Leukemia and Lymphoma Society</c:v>
+                  <c:v>Bill and Melinda Gates Foundation</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Bill and Melinda Gates Foundation</c:v>
+                  <c:v>Alzheimer's Assosciation </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Alzheimer's Assosciation </c:v>
+                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
+                  <c:v>American Heart Association</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>American Heart Association</c:v>
+                  <c:v>JDRF International</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>JDRF International</c:v>
+                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
+                  <c:v>Susan G. Komen</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Susan G. Komen</c:v>
+                  <c:v>Food and Drug Administration</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Food and Drug Administration</c:v>
+                  <c:v>Patient Centered Outcomes Research Institute</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Patient Centered Outcomes Research Institute</c:v>
+                  <c:v>Department of Veteran's Affairs</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Department of Veteran's Affairs</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>National Institutes of Health</c:v>
                 </c:pt>
               </c:strCache>
@@ -1764,12 +1816,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$H$2:$H$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$H$2:$H$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$H$3:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -1808,9 +1867,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1837,52 +1893,56 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$A$2:$A$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>American Cancer Society</c:v>
+                  <c:v>Agency for Healthcare Quality Research</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Agency for Healthcare Quality Research</c:v>
+                  <c:v>Centers for Disease Control and Prevention</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Centers for Disease Control and Prevention</c:v>
+                  <c:v>Leukemia and Lymphoma Society</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Leukemia and Lymphoma Society</c:v>
+                  <c:v>Bill and Melinda Gates Foundation</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Bill and Melinda Gates Foundation</c:v>
+                  <c:v>Alzheimer's Assosciation </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Alzheimer's Assosciation </c:v>
+                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
+                  <c:v>American Heart Association</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>American Heart Association</c:v>
+                  <c:v>JDRF International</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>JDRF International</c:v>
+                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
+                  <c:v>Susan G. Komen</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Susan G. Komen</c:v>
+                  <c:v>Food and Drug Administration</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Food and Drug Administration</c:v>
+                  <c:v>Patient Centered Outcomes Research Institute</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Patient Centered Outcomes Research Institute</c:v>
+                  <c:v>Department of Veteran's Affairs</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Department of Veteran's Affairs</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>National Institutes of Health</c:v>
                 </c:pt>
               </c:strCache>
@@ -1890,10 +1950,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$I$2:$I$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$I$2:$I$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$I$3:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1922,21 +1989,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1963,52 +2027,56 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$A$2:$A$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>American Cancer Society</c:v>
+                  <c:v>Agency for Healthcare Quality Research</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Agency for Healthcare Quality Research</c:v>
+                  <c:v>Centers for Disease Control and Prevention</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Centers for Disease Control and Prevention</c:v>
+                  <c:v>Leukemia and Lymphoma Society</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Leukemia and Lymphoma Society</c:v>
+                  <c:v>Bill and Melinda Gates Foundation</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Bill and Melinda Gates Foundation</c:v>
+                  <c:v>Alzheimer's Assosciation </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Alzheimer's Assosciation </c:v>
+                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
+                  <c:v>American Heart Association</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>American Heart Association</c:v>
+                  <c:v>JDRF International</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>JDRF International</c:v>
+                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
+                  <c:v>Susan G. Komen</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Susan G. Komen</c:v>
+                  <c:v>Food and Drug Administration</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Food and Drug Administration</c:v>
+                  <c:v>Patient Centered Outcomes Research Institute</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Patient Centered Outcomes Research Institute</c:v>
+                  <c:v>Department of Veteran's Affairs</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Department of Veteran's Affairs</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>National Institutes of Health</c:v>
                 </c:pt>
               </c:strCache>
@@ -2016,10 +2084,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$K$2:$K$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$K$2:$K$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$K$3:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2054,15 +2129,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2089,52 +2161,56 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$A$2:$A$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>American Cancer Society</c:v>
+                  <c:v>Agency for Healthcare Quality Research</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Agency for Healthcare Quality Research</c:v>
+                  <c:v>Centers for Disease Control and Prevention</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Centers for Disease Control and Prevention</c:v>
+                  <c:v>Leukemia and Lymphoma Society</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Leukemia and Lymphoma Society</c:v>
+                  <c:v>Bill and Melinda Gates Foundation</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Bill and Melinda Gates Foundation</c:v>
+                  <c:v>Alzheimer's Assosciation </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Alzheimer's Assosciation </c:v>
+                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
+                  <c:v>American Heart Association</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>American Heart Association</c:v>
+                  <c:v>JDRF International</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>JDRF International</c:v>
+                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
+                  <c:v>Susan G. Komen</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Susan G. Komen</c:v>
+                  <c:v>Food and Drug Administration</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Food and Drug Administration</c:v>
+                  <c:v>Patient Centered Outcomes Research Institute</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Patient Centered Outcomes Research Institute</c:v>
+                  <c:v>Department of Veteran's Affairs</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Department of Veteran's Affairs</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>National Institutes of Health</c:v>
                 </c:pt>
               </c:strCache>
@@ -2142,10 +2218,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$L$2:$L$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$L$2:$L$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$L$3:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2180,15 +2263,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2215,52 +2295,56 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$A$2:$A$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>American Cancer Society</c:v>
+                  <c:v>Agency for Healthcare Quality Research</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Agency for Healthcare Quality Research</c:v>
+                  <c:v>Centers for Disease Control and Prevention</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Centers for Disease Control and Prevention</c:v>
+                  <c:v>Leukemia and Lymphoma Society</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Leukemia and Lymphoma Society</c:v>
+                  <c:v>Bill and Melinda Gates Foundation</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Bill and Melinda Gates Foundation</c:v>
+                  <c:v>Alzheimer's Assosciation </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Alzheimer's Assosciation </c:v>
+                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Congressionally Directed Medical Research Programs (DoD)</c:v>
+                  <c:v>American Heart Association</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>American Heart Association</c:v>
+                  <c:v>JDRF International</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>JDRF International</c:v>
+                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Michael J. Fox Foundation for Parkinsons Research</c:v>
+                  <c:v>Susan G. Komen</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Susan G. Komen</c:v>
+                  <c:v>Food and Drug Administration</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Food and Drug Administration</c:v>
+                  <c:v>Patient Centered Outcomes Research Institute</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Patient Centered Outcomes Research Institute</c:v>
+                  <c:v>Department of Veteran's Affairs</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Department of Veteran's Affairs</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>National Institutes of Health</c:v>
                 </c:pt>
               </c:strCache>
@@ -2268,10 +2352,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$J$2:$J$16</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>[1]Sheet1!$J$2:$J$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>[1]Sheet1!$J$3:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2306,15 +2397,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -6443,24 +6531,24 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.54296875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6501,7 +6589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -6542,7 +6630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -6586,7 +6674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -6630,7 +6718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -6674,7 +6762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -6718,7 +6806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -6762,7 +6850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -6806,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -6850,7 +6938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -6894,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -6910,7 +6998,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -6954,7 +7042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -6998,7 +7086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7042,7 +7130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -7086,7 +7174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -7130,7 +7218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -7174,7 +7262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>47</v>
       </c>
@@ -7190,7 +7278,7 @@
       <c r="K18" s="18"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>48</v>
       </c>
@@ -7206,7 +7294,7 @@
       <c r="K19" s="18"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>49</v>
       </c>
@@ -7225,7 +7313,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -7240,7 +7328,7 @@
       <c r="L21"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -7255,7 +7343,7 @@
       <c r="L22"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -7270,7 +7358,7 @@
       <c r="L23"/>
       <c r="M23"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -7285,7 +7373,7 @@
       <c r="L24"/>
       <c r="M24"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -7300,7 +7388,7 @@
       <c r="L25"/>
       <c r="M25"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -7315,7 +7403,7 @@
       <c r="L26"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -7330,7 +7418,7 @@
       <c r="L27"/>
       <c r="M27"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -7345,7 +7433,7 @@
       <c r="L28"/>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -7360,7 +7448,7 @@
       <c r="L29"/>
       <c r="M29"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -7375,7 +7463,7 @@
       <c r="L30"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -7390,7 +7478,7 @@
       <c r="L31"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -7405,279 +7493,279 @@
       <c r="L32"/>
       <c r="M32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="129" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="131" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="132" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="133" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="134" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="135" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="140" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="141" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="142" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="143" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="156" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="157" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="158" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="159" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="160" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="165" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="166" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="167" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="168" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="169" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="170" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="171" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="172" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="173" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="175" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="176" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="184" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="185" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="186" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="187" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="188" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="189" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="190" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="191" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="192" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="193" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="194" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="195" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="196" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="197" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="198" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="199" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="200" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="202" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="203" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="204" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="205" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="206" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="207" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="208" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="209" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="210" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="211" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="212" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="213" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="214" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="215" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="216" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="217" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="218" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="219" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="220" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="221" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="222" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="223" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="224" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="225" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="226" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="227" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="228" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="229" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="230" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="231" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="232" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="233" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="234" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="235" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="236" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="237" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="238" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="239" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="240" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="241" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="242" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="243" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="244" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="245" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="246" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="247" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="248" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="249" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="250" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="251" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="252" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="253" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="254" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="255" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="256" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="257" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="258" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="259" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="260" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="261" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="262" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="263" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="264" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="265" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="266" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="267" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="268" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="269" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="270" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="271" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="272" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="273" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="274" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="275" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="276" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="277" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="278" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="279" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="280" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="281" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="282" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="283" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="284" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="285" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="286" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="287" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="288" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="289" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="290" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="291" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="292" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="293" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="294" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="295" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="296" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="297" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="298" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="299" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="300" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="301" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="302" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="303" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="304" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="263" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="264" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="265" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="267" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="268" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="270" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="272" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="273" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="274" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="275" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="276" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="277" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="278" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="279" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="280" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="281" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="282" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="283" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="284" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="285" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="286" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="287" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="288" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="289" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="290" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="291" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="292" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="293" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="294" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="295" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="296" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="297" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="298" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="299" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="300" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="301" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="302" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="303" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="304" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305"/>
       <c r="B305"/>
       <c r="C305"/>
@@ -7692,7 +7780,7 @@
       <c r="L305"/>
       <c r="M305"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306"/>
       <c r="B306"/>
       <c r="C306"/>
@@ -7707,7 +7795,7 @@
       <c r="L306"/>
       <c r="M306"/>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307"/>
       <c r="B307"/>
       <c r="C307"/>
@@ -7722,7 +7810,7 @@
       <c r="L307"/>
       <c r="M307"/>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308"/>
       <c r="B308"/>
       <c r="C308"/>
@@ -7737,7 +7825,7 @@
       <c r="L308"/>
       <c r="M308"/>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309"/>
       <c r="B309"/>
       <c r="C309"/>
@@ -7752,7 +7840,7 @@
       <c r="L309"/>
       <c r="M309"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
@@ -7767,2677 +7855,2677 @@
       <c r="L310"/>
       <c r="M310"/>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B311"/>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B312"/>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B313"/>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B314"/>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B315"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B316"/>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B317"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B318"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B319"/>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B320"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B321"/>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B322"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B323"/>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B324"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B325"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B326"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B327"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B328"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B329"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B330"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B331"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B332"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B333"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B334"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B335"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B336"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B337"/>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B338"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B339"/>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B340"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B341"/>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B342"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B343"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B344"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B345"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B346"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B347"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B348"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B349"/>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B350"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B351"/>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B352"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B353"/>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B354"/>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B355"/>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B356"/>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B357"/>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B358"/>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B359"/>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B360"/>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B361"/>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B362"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B363"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B364"/>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B365"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B366"/>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B367"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B368"/>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B369"/>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B370"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B371"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B372"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B373"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B374"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B375"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B376"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B377"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B378"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B379"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B380"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B381"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B382"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B383"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B384"/>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B385"/>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B386"/>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B387"/>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B388"/>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B389"/>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B390"/>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B391"/>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B392"/>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B393"/>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B394"/>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B395"/>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B396"/>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B397"/>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B398"/>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B399"/>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B400"/>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B401"/>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B402"/>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B403"/>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B404"/>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B405"/>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B406"/>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B407"/>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B408"/>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B409"/>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B410"/>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B411"/>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B412"/>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B413"/>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B414"/>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B415"/>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B416"/>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B417"/>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B418"/>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B419"/>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B420"/>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B421"/>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B422"/>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B423"/>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B424"/>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B425"/>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B426"/>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B427"/>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B428"/>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B429"/>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B430"/>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B431"/>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B432"/>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B433"/>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B434"/>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B435"/>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B436"/>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B437"/>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B438"/>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B439"/>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B440"/>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B441"/>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B442"/>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B443"/>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B444"/>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B445"/>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B446"/>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B447"/>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B448"/>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B449"/>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B450"/>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B451"/>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B452"/>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B453"/>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B454"/>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B455"/>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B456"/>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B457"/>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B458"/>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B459"/>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B460"/>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B461"/>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B462"/>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B463"/>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B464"/>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B465"/>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B466"/>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B467"/>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B468"/>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B469"/>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B470"/>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B471"/>
     </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B472"/>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B473"/>
     </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B474"/>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B475"/>
     </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B476"/>
     </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B477"/>
     </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B478"/>
     </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B479"/>
     </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B480"/>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B481"/>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B482"/>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B483"/>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B484"/>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B485"/>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B486"/>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B487"/>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B488"/>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B489"/>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B490"/>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B491"/>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B492"/>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B493"/>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B494"/>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B495"/>
     </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B496"/>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B497"/>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B498"/>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B499"/>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B500"/>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B501"/>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B502"/>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B503"/>
     </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B504"/>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B505"/>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B506"/>
     </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B507"/>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B508"/>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B509"/>
     </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B510"/>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B511"/>
     </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B512"/>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B513"/>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B514"/>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B515"/>
     </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B516"/>
     </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="517" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B517"/>
     </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="518" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B518"/>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="519" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B519"/>
     </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B520"/>
     </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="521" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B521"/>
     </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="522" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B522"/>
     </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="523" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B523"/>
     </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="524" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B524"/>
     </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="525" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B525"/>
     </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B526"/>
     </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="527" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B527"/>
     </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="528" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B528"/>
     </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="529" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B529"/>
     </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="530" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B530"/>
     </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="531" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B531"/>
     </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="532" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B532"/>
     </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="533" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B533"/>
     </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="534" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B534"/>
     </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="535" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B535"/>
     </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="536" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B536"/>
     </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="537" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B537"/>
     </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="538" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B538"/>
     </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="539" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B539"/>
     </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B540"/>
     </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B541"/>
     </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="542" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B542"/>
     </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="543" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B543"/>
     </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="544" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B544"/>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B545"/>
     </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B546"/>
     </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="547" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B547"/>
     </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B548"/>
     </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B549"/>
     </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="550" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B550"/>
     </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="551" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B551"/>
     </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="552" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B552"/>
     </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="553" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B553"/>
     </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B554"/>
     </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="555" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B555"/>
     </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="556" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B556"/>
     </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="557" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B557"/>
     </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="558" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B558"/>
     </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="559" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B559"/>
     </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="560" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B560"/>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B561"/>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="562" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B562"/>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="563" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B563"/>
     </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B564"/>
     </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="565" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B565"/>
     </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="566" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B566"/>
     </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="567" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B567"/>
     </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="568" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B568"/>
     </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="569" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B569"/>
     </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="570" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B570"/>
     </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="571" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B571"/>
     </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="572" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B572"/>
     </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="573" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B573"/>
     </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="574" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B574"/>
     </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B575"/>
     </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="576" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B576"/>
     </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="577" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B577"/>
     </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="578" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B578"/>
     </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="579" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B579"/>
     </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="580" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B580"/>
     </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="581" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B581"/>
     </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="582" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B582"/>
     </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B583"/>
     </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="584" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B584"/>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="585" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B585"/>
     </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="586" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B586"/>
     </row>
-    <row r="587" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="587" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B587"/>
     </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="588" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B588"/>
     </row>
-    <row r="589" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="589" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B589"/>
     </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="590" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B590"/>
     </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="591" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B591"/>
     </row>
-    <row r="592" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="592" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B592"/>
     </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="593" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B593"/>
     </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="594" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B594"/>
     </row>
-    <row r="595" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="595" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B595"/>
     </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="596" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B596"/>
     </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="597" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B597"/>
     </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="598" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B598"/>
     </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="599" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B599"/>
     </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="600" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B600"/>
     </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="601" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B601"/>
     </row>
-    <row r="602" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="602" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B602"/>
     </row>
-    <row r="603" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="603" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B603"/>
     </row>
-    <row r="604" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="604" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B604"/>
     </row>
-    <row r="605" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="605" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B605"/>
     </row>
-    <row r="606" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="606" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B606"/>
     </row>
-    <row r="607" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="607" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B607"/>
     </row>
-    <row r="608" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="608" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B608"/>
     </row>
-    <row r="609" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="609" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B609"/>
     </row>
-    <row r="610" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="610" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B610"/>
     </row>
-    <row r="611" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="611" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B611"/>
     </row>
-    <row r="612" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="612" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B612"/>
     </row>
-    <row r="613" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="613" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B613"/>
     </row>
-    <row r="614" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="614" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B614"/>
     </row>
-    <row r="615" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="615" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B615"/>
     </row>
-    <row r="616" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="616" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B616"/>
     </row>
-    <row r="617" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="617" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B617"/>
     </row>
-    <row r="618" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="618" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B618"/>
     </row>
-    <row r="619" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="619" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B619"/>
     </row>
-    <row r="620" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="620" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B620"/>
     </row>
-    <row r="621" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="621" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B621"/>
     </row>
-    <row r="622" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="622" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B622"/>
     </row>
-    <row r="623" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="623" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B623"/>
     </row>
-    <row r="624" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="624" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B624"/>
     </row>
-    <row r="625" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="625" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B625"/>
     </row>
-    <row r="626" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="626" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B626"/>
     </row>
-    <row r="627" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="627" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B627"/>
     </row>
-    <row r="628" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="628" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B628"/>
     </row>
-    <row r="629" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="629" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B629"/>
     </row>
-    <row r="630" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="630" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B630"/>
     </row>
-    <row r="631" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="631" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B631"/>
     </row>
-    <row r="632" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="632" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B632"/>
     </row>
-    <row r="633" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="633" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B633"/>
     </row>
-    <row r="634" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="634" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B634"/>
     </row>
-    <row r="635" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="635" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B635"/>
     </row>
-    <row r="636" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="636" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B636"/>
     </row>
-    <row r="637" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="637" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B637"/>
     </row>
-    <row r="638" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="638" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B638"/>
     </row>
-    <row r="639" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="639" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B639"/>
     </row>
-    <row r="640" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="640" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B640"/>
     </row>
-    <row r="641" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="641" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B641"/>
     </row>
-    <row r="642" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="642" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B642"/>
     </row>
-    <row r="643" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="643" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B643"/>
     </row>
-    <row r="644" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="644" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B644"/>
     </row>
-    <row r="645" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="645" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B645"/>
     </row>
-    <row r="646" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="646" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B646"/>
     </row>
-    <row r="647" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="647" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B647"/>
     </row>
-    <row r="648" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="648" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B648"/>
     </row>
-    <row r="649" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="649" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B649"/>
     </row>
-    <row r="650" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="650" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B650"/>
     </row>
-    <row r="651" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="651" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B651"/>
     </row>
-    <row r="652" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="652" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B652"/>
     </row>
-    <row r="653" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="653" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B653"/>
     </row>
-    <row r="654" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="654" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B654"/>
     </row>
-    <row r="655" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="655" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B655"/>
     </row>
-    <row r="656" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="656" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B656"/>
     </row>
-    <row r="657" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="657" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B657"/>
     </row>
-    <row r="658" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="658" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B658"/>
     </row>
-    <row r="659" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="659" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B659"/>
     </row>
-    <row r="660" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="660" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B660"/>
     </row>
-    <row r="661" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="661" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B661"/>
     </row>
-    <row r="662" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="662" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B662"/>
     </row>
-    <row r="663" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="663" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B663"/>
     </row>
-    <row r="664" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="664" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B664"/>
     </row>
-    <row r="665" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="665" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B665"/>
     </row>
-    <row r="666" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="666" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B666"/>
     </row>
-    <row r="667" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="667" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B667"/>
     </row>
-    <row r="668" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="668" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B668"/>
     </row>
-    <row r="669" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="669" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B669"/>
     </row>
-    <row r="670" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="670" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B670"/>
     </row>
-    <row r="671" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="671" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B671"/>
     </row>
-    <row r="672" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="672" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B672"/>
     </row>
-    <row r="673" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="673" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B673"/>
     </row>
-    <row r="674" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="674" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B674"/>
     </row>
-    <row r="675" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="675" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B675"/>
     </row>
-    <row r="676" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="676" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B676"/>
     </row>
-    <row r="677" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="677" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B677"/>
     </row>
-    <row r="678" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="678" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B678"/>
     </row>
-    <row r="679" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="679" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B679"/>
     </row>
-    <row r="680" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="680" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B680"/>
     </row>
-    <row r="681" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="681" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B681"/>
     </row>
-    <row r="682" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="682" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B682"/>
     </row>
-    <row r="683" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="683" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B683"/>
     </row>
-    <row r="684" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="684" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B684"/>
     </row>
-    <row r="685" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="685" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B685"/>
     </row>
-    <row r="686" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="686" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B686"/>
     </row>
-    <row r="687" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="687" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B687"/>
     </row>
-    <row r="688" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="688" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B688"/>
     </row>
-    <row r="689" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="689" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B689"/>
     </row>
-    <row r="690" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="690" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B690"/>
     </row>
-    <row r="691" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="691" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B691"/>
     </row>
-    <row r="692" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="692" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B692"/>
     </row>
-    <row r="693" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="693" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B693"/>
     </row>
-    <row r="694" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="694" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B694"/>
     </row>
-    <row r="695" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="695" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B695"/>
     </row>
-    <row r="696" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="696" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B696"/>
     </row>
-    <row r="697" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="697" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B697"/>
     </row>
-    <row r="698" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="698" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B698"/>
     </row>
-    <row r="699" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="699" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B699"/>
     </row>
-    <row r="700" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="700" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B700"/>
     </row>
-    <row r="701" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="701" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B701"/>
     </row>
-    <row r="702" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="702" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B702"/>
     </row>
-    <row r="703" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="703" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B703"/>
     </row>
-    <row r="704" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="704" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B704"/>
     </row>
-    <row r="705" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="705" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B705"/>
     </row>
-    <row r="706" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="706" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B706"/>
     </row>
-    <row r="707" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="707" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B707"/>
     </row>
-    <row r="708" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="708" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B708"/>
     </row>
-    <row r="709" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="709" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B709"/>
     </row>
-    <row r="710" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="710" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B710"/>
     </row>
-    <row r="711" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="711" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B711"/>
     </row>
-    <row r="712" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="712" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B712"/>
     </row>
-    <row r="713" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="713" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B713"/>
     </row>
-    <row r="714" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="714" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B714"/>
     </row>
-    <row r="715" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="715" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B715"/>
     </row>
-    <row r="716" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="716" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B716"/>
     </row>
-    <row r="717" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="717" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B717"/>
     </row>
-    <row r="718" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="718" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B718"/>
     </row>
-    <row r="719" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="719" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B719"/>
     </row>
-    <row r="720" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="720" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B720"/>
     </row>
-    <row r="721" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="721" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B721"/>
     </row>
-    <row r="722" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="722" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B722"/>
     </row>
-    <row r="723" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="723" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B723"/>
     </row>
-    <row r="724" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="724" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B724"/>
     </row>
-    <row r="725" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="725" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B725"/>
     </row>
-    <row r="726" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="726" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B726"/>
     </row>
-    <row r="727" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="727" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B727"/>
     </row>
-    <row r="728" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="728" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B728"/>
     </row>
-    <row r="729" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="729" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B729"/>
     </row>
-    <row r="730" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="730" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B730"/>
     </row>
-    <row r="731" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="731" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B731"/>
     </row>
-    <row r="732" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="732" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B732"/>
     </row>
-    <row r="733" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="733" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B733"/>
     </row>
-    <row r="734" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="734" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B734"/>
     </row>
-    <row r="735" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="735" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B735"/>
     </row>
-    <row r="736" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="736" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B736"/>
     </row>
-    <row r="737" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="737" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B737"/>
     </row>
-    <row r="738" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="738" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B738"/>
     </row>
-    <row r="739" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="739" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B739"/>
     </row>
-    <row r="740" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="740" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B740"/>
     </row>
-    <row r="741" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="741" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B741"/>
     </row>
-    <row r="742" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="742" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B742"/>
     </row>
-    <row r="743" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="743" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B743"/>
     </row>
-    <row r="744" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="744" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B744"/>
     </row>
-    <row r="745" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="745" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B745"/>
     </row>
-    <row r="746" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="746" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B746"/>
     </row>
-    <row r="747" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="747" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B747"/>
     </row>
-    <row r="748" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="748" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B748"/>
     </row>
-    <row r="749" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="749" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B749"/>
     </row>
-    <row r="750" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="750" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B750"/>
     </row>
-    <row r="751" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="751" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B751"/>
     </row>
-    <row r="752" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="752" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B752"/>
     </row>
-    <row r="753" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="753" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B753"/>
     </row>
-    <row r="754" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="754" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B754"/>
     </row>
-    <row r="755" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="755" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B755"/>
     </row>
-    <row r="756" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="756" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B756"/>
     </row>
-    <row r="757" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="757" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B757"/>
     </row>
-    <row r="758" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="758" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B758"/>
     </row>
-    <row r="759" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="759" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B759"/>
     </row>
-    <row r="760" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="760" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B760"/>
     </row>
-    <row r="761" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="761" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B761"/>
     </row>
-    <row r="762" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="762" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B762"/>
     </row>
-    <row r="763" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="763" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B763"/>
     </row>
-    <row r="764" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="764" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B764"/>
     </row>
-    <row r="765" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="765" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B765"/>
     </row>
-    <row r="766" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="766" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B766"/>
     </row>
-    <row r="767" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="767" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B767"/>
     </row>
-    <row r="768" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="768" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B768"/>
     </row>
-    <row r="769" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="769" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B769"/>
     </row>
-    <row r="770" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="770" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B770"/>
     </row>
-    <row r="771" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="771" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B771"/>
     </row>
-    <row r="772" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="772" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B772"/>
     </row>
-    <row r="773" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="773" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B773"/>
     </row>
-    <row r="774" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="774" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B774"/>
     </row>
-    <row r="775" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="775" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B775"/>
     </row>
-    <row r="776" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="776" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B776"/>
     </row>
-    <row r="777" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="777" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B777"/>
     </row>
-    <row r="778" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="778" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B778"/>
     </row>
-    <row r="779" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="779" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B779"/>
     </row>
-    <row r="780" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="780" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B780"/>
     </row>
-    <row r="781" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="781" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B781"/>
     </row>
-    <row r="782" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="782" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B782"/>
     </row>
-    <row r="783" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="783" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B783"/>
     </row>
-    <row r="784" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="784" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B784"/>
     </row>
-    <row r="785" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="785" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B785"/>
     </row>
-    <row r="786" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="786" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B786"/>
     </row>
-    <row r="787" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="787" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B787"/>
     </row>
-    <row r="788" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="788" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B788"/>
     </row>
-    <row r="789" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="789" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B789"/>
     </row>
-    <row r="790" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="790" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B790"/>
     </row>
-    <row r="791" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="791" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B791"/>
     </row>
-    <row r="792" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="792" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B792"/>
     </row>
-    <row r="793" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="793" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B793"/>
     </row>
-    <row r="794" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="794" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B794"/>
     </row>
-    <row r="795" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="795" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B795"/>
     </row>
-    <row r="796" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="796" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B796"/>
     </row>
-    <row r="797" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="797" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B797"/>
     </row>
-    <row r="798" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="798" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B798"/>
     </row>
-    <row r="799" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="799" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B799"/>
     </row>
-    <row r="800" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="800" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B800"/>
     </row>
-    <row r="801" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="801" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B801"/>
     </row>
-    <row r="802" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="802" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B802"/>
     </row>
-    <row r="803" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="803" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B803"/>
     </row>
-    <row r="804" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="804" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B804"/>
     </row>
-    <row r="805" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="805" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B805"/>
     </row>
-    <row r="806" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="806" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B806"/>
     </row>
-    <row r="807" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="807" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B807"/>
     </row>
-    <row r="808" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="808" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B808"/>
     </row>
-    <row r="809" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="809" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B809"/>
     </row>
-    <row r="810" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="810" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B810"/>
     </row>
-    <row r="811" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="811" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B811"/>
     </row>
-    <row r="812" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="812" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B812"/>
     </row>
-    <row r="813" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="813" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B813"/>
     </row>
-    <row r="814" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="814" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B814"/>
     </row>
-    <row r="815" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="815" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B815"/>
     </row>
-    <row r="816" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="816" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B816"/>
     </row>
-    <row r="817" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="817" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B817"/>
     </row>
-    <row r="818" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="818" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B818"/>
     </row>
-    <row r="819" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="819" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B819"/>
     </row>
-    <row r="820" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="820" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B820"/>
     </row>
-    <row r="821" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="821" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B821"/>
     </row>
-    <row r="822" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="822" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B822"/>
     </row>
-    <row r="823" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="823" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B823"/>
     </row>
-    <row r="824" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="824" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B824"/>
     </row>
-    <row r="825" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="825" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B825"/>
     </row>
-    <row r="826" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="826" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B826"/>
     </row>
-    <row r="827" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="827" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B827"/>
     </row>
-    <row r="828" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="828" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B828"/>
     </row>
-    <row r="829" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="829" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B829"/>
     </row>
-    <row r="830" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="830" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B830"/>
     </row>
-    <row r="831" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="831" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B831"/>
     </row>
-    <row r="832" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="832" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B832"/>
     </row>
-    <row r="833" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="833" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B833"/>
     </row>
-    <row r="834" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="834" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B834"/>
     </row>
-    <row r="835" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="835" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B835"/>
     </row>
-    <row r="836" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="836" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B836"/>
     </row>
-    <row r="837" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="837" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B837"/>
     </row>
-    <row r="838" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="838" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B838"/>
     </row>
-    <row r="839" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="839" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B839"/>
     </row>
-    <row r="840" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="840" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B840"/>
     </row>
-    <row r="841" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="841" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B841"/>
     </row>
-    <row r="842" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="842" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B842"/>
     </row>
-    <row r="843" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="843" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B843"/>
     </row>
-    <row r="844" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="844" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B844"/>
     </row>
-    <row r="845" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="845" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B845"/>
     </row>
-    <row r="846" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="846" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B846"/>
     </row>
-    <row r="847" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="847" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B847"/>
     </row>
-    <row r="848" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="848" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B848"/>
     </row>
-    <row r="849" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="849" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B849"/>
     </row>
-    <row r="850" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="850" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B850"/>
     </row>
-    <row r="851" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="851" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B851"/>
     </row>
-    <row r="852" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="852" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B852"/>
     </row>
-    <row r="853" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="853" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B853"/>
     </row>
-    <row r="854" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="854" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B854"/>
     </row>
-    <row r="855" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="855" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B855"/>
     </row>
-    <row r="856" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="856" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B856"/>
     </row>
-    <row r="857" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="857" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B857"/>
     </row>
-    <row r="858" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="858" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B858"/>
     </row>
-    <row r="859" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="859" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B859"/>
     </row>
-    <row r="860" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="860" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B860"/>
     </row>
-    <row r="861" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="861" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B861"/>
     </row>
-    <row r="862" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="862" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B862"/>
     </row>
-    <row r="863" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="863" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B863"/>
     </row>
-    <row r="864" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="864" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B864"/>
     </row>
-    <row r="865" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="865" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B865"/>
     </row>
-    <row r="866" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="866" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B866"/>
     </row>
-    <row r="867" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="867" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B867"/>
     </row>
-    <row r="868" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="868" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B868"/>
     </row>
-    <row r="869" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="869" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B869"/>
     </row>
-    <row r="870" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="870" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B870"/>
     </row>
-    <row r="871" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="871" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B871"/>
     </row>
-    <row r="872" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="872" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B872"/>
     </row>
-    <row r="873" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="873" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B873"/>
     </row>
-    <row r="874" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="874" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B874"/>
     </row>
-    <row r="875" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="875" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B875"/>
     </row>
-    <row r="876" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="876" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B876"/>
     </row>
-    <row r="877" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="877" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B877"/>
     </row>
-    <row r="878" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="878" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B878"/>
     </row>
-    <row r="879" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="879" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B879"/>
     </row>
-    <row r="880" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="880" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B880"/>
     </row>
-    <row r="881" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="881" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B881"/>
     </row>
-    <row r="882" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="882" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B882"/>
     </row>
-    <row r="883" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="883" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B883"/>
     </row>
-    <row r="884" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="884" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B884"/>
     </row>
-    <row r="885" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="885" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B885"/>
     </row>
-    <row r="886" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="886" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B886"/>
     </row>
-    <row r="887" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="887" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B887"/>
     </row>
-    <row r="888" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="888" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B888"/>
     </row>
-    <row r="889" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="889" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B889"/>
     </row>
-    <row r="890" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="890" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B890"/>
     </row>
-    <row r="891" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="891" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B891"/>
     </row>
-    <row r="892" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="892" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B892"/>
     </row>
-    <row r="893" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="893" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B893"/>
     </row>
-    <row r="894" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="894" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B894"/>
     </row>
-    <row r="895" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="895" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B895"/>
     </row>
-    <row r="896" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="896" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B896"/>
     </row>
-    <row r="897" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="897" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B897"/>
     </row>
-    <row r="898" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="898" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B898"/>
     </row>
-    <row r="899" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="899" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B899"/>
     </row>
-    <row r="900" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="900" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B900"/>
     </row>
-    <row r="901" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="901" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B901"/>
     </row>
-    <row r="902" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="902" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B902"/>
     </row>
-    <row r="903" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="903" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B903"/>
     </row>
-    <row r="904" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="904" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B904"/>
     </row>
-    <row r="905" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="905" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B905"/>
     </row>
-    <row r="906" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="906" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B906"/>
     </row>
-    <row r="907" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="907" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B907"/>
     </row>
-    <row r="908" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="908" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B908"/>
     </row>
-    <row r="909" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="909" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B909"/>
     </row>
-    <row r="910" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="910" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B910"/>
     </row>
-    <row r="911" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="911" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B911"/>
     </row>
-    <row r="912" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="912" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B912"/>
     </row>
-    <row r="913" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="913" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B913"/>
     </row>
-    <row r="914" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="914" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B914"/>
     </row>
-    <row r="915" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="915" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B915"/>
     </row>
-    <row r="916" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="916" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B916"/>
     </row>
-    <row r="917" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="917" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B917"/>
     </row>
-    <row r="918" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="918" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B918"/>
     </row>
-    <row r="919" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="919" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B919"/>
     </row>
-    <row r="920" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="920" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B920"/>
     </row>
-    <row r="921" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="921" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B921"/>
     </row>
-    <row r="922" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="922" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B922"/>
     </row>
-    <row r="923" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="923" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B923"/>
     </row>
-    <row r="924" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="924" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B924"/>
     </row>
-    <row r="925" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="925" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B925"/>
     </row>
-    <row r="926" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="926" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B926"/>
     </row>
-    <row r="927" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="927" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B927"/>
     </row>
-    <row r="928" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="928" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B928"/>
     </row>
-    <row r="929" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="929" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B929"/>
     </row>
-    <row r="930" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="930" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B930"/>
     </row>
-    <row r="931" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="931" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B931"/>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B932"/>
     </row>
-    <row r="933" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="933" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B933"/>
     </row>
-    <row r="934" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="934" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B934"/>
     </row>
-    <row r="935" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="935" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B935"/>
     </row>
-    <row r="936" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="936" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B936"/>
     </row>
-    <row r="937" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="937" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B937"/>
     </row>
-    <row r="938" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="938" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B938"/>
     </row>
-    <row r="939" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="939" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B939"/>
     </row>
-    <row r="940" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="940" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B940"/>
     </row>
-    <row r="941" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="941" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B941"/>
     </row>
-    <row r="942" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="942" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B942"/>
     </row>
-    <row r="943" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="943" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B943"/>
     </row>
-    <row r="944" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="944" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B944"/>
     </row>
-    <row r="945" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="945" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B945"/>
     </row>
-    <row r="946" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="946" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B946"/>
     </row>
-    <row r="947" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="947" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B947"/>
     </row>
-    <row r="948" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="948" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B948"/>
     </row>
-    <row r="949" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="949" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B949"/>
     </row>
-    <row r="950" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="950" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B950"/>
     </row>
-    <row r="951" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="951" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B951"/>
     </row>
-    <row r="952" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="952" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B952"/>
     </row>
-    <row r="953" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="953" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B953"/>
     </row>
-    <row r="954" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="954" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B954"/>
     </row>
-    <row r="955" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="955" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B955"/>
     </row>
-    <row r="956" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="956" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B956"/>
     </row>
-    <row r="957" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="957" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B957"/>
     </row>
-    <row r="958" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="958" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B958"/>
     </row>
-    <row r="959" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="959" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B959"/>
     </row>
-    <row r="960" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="960" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B960"/>
     </row>
-    <row r="961" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="961" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B961"/>
     </row>
-    <row r="962" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="962" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B962"/>
     </row>
-    <row r="963" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="963" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B963"/>
     </row>
-    <row r="964" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="964" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B964"/>
     </row>
-    <row r="965" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="965" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B965"/>
     </row>
-    <row r="966" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="966" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B966"/>
     </row>
-    <row r="967" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="967" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B967"/>
     </row>
-    <row r="968" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="968" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B968"/>
     </row>
-    <row r="969" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="969" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B969"/>
     </row>
-    <row r="970" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="970" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B970"/>
     </row>
-    <row r="971" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="971" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B971"/>
     </row>
-    <row r="972" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="972" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B972"/>
     </row>
-    <row r="973" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="973" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B973"/>
     </row>
-    <row r="974" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="974" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B974"/>
     </row>
-    <row r="975" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="975" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B975"/>
     </row>
-    <row r="976" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="976" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B976"/>
     </row>
-    <row r="977" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="977" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B977"/>
     </row>
-    <row r="978" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="978" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B978"/>
     </row>
-    <row r="979" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="979" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B979"/>
     </row>
-    <row r="980" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="980" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B980"/>
     </row>
-    <row r="981" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="981" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B981"/>
     </row>
-    <row r="982" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="982" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B982"/>
     </row>
-    <row r="983" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="983" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B983"/>
     </row>
-    <row r="984" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="984" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B984"/>
     </row>
-    <row r="985" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="985" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B985"/>
     </row>
-    <row r="986" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="986" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B986"/>
     </row>
-    <row r="987" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="987" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B987"/>
     </row>
-    <row r="988" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="988" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B988"/>
     </row>
-    <row r="989" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="989" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B989"/>
     </row>
-    <row r="990" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="990" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B990"/>
     </row>
-    <row r="991" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="991" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B991"/>
     </row>
-    <row r="992" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="992" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B992"/>
     </row>
-    <row r="993" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="993" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B993"/>
     </row>
-    <row r="994" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="994" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B994"/>
     </row>
-    <row r="995" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="995" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B995"/>
     </row>
-    <row r="996" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="996" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B996"/>
     </row>
-    <row r="997" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="997" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B997"/>
     </row>
-    <row r="998" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="998" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B998"/>
     </row>
-    <row r="999" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="999" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B999"/>
     </row>
-    <row r="1000" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1000" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1000"/>
     </row>
-    <row r="1001" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1001" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1001"/>
     </row>
-    <row r="1002" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1002" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1002"/>
     </row>
-    <row r="1003" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1003" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1003"/>
     </row>
-    <row r="1004" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1004" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1004"/>
     </row>
-    <row r="1005" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1005" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1005"/>
     </row>
-    <row r="1006" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1006" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1006"/>
     </row>
-    <row r="1007" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1007" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1007"/>
     </row>
-    <row r="1008" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1008" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1008"/>
     </row>
-    <row r="1009" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1009" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1009"/>
     </row>
-    <row r="1010" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1010" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1010"/>
     </row>
-    <row r="1011" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1011" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1011"/>
     </row>
-    <row r="1012" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1012" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1012"/>
     </row>
-    <row r="1013" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1013" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1013"/>
     </row>
-    <row r="1014" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1014" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1014"/>
     </row>
-    <row r="1015" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1015" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1015"/>
     </row>
-    <row r="1016" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1016" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1016"/>
     </row>
-    <row r="1017" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1017" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1017"/>
     </row>
-    <row r="1018" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1018" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1018"/>
     </row>
-    <row r="1019" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1019" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1019"/>
     </row>
-    <row r="1020" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1020" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1020"/>
     </row>
-    <row r="1021" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1021" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1021"/>
     </row>
-    <row r="1022" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1022" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1022"/>
     </row>
-    <row r="1023" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1023" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1023"/>
     </row>
-    <row r="1024" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1024" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1024"/>
     </row>
-    <row r="1025" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1025" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1025"/>
     </row>
-    <row r="1026" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1026" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1026"/>
     </row>
-    <row r="1027" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1027" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1027"/>
     </row>
-    <row r="1028" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1028" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1028"/>
     </row>
-    <row r="1029" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1029" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1029"/>
     </row>
-    <row r="1030" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1030" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1030"/>
     </row>
-    <row r="1031" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1031" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1031"/>
     </row>
-    <row r="1032" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1032" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1032"/>
     </row>
-    <row r="1033" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1033" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1033"/>
     </row>
-    <row r="1034" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1034" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1034"/>
     </row>
-    <row r="1035" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1035" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1035"/>
     </row>
-    <row r="1036" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1036" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1036"/>
     </row>
-    <row r="1037" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1037" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1037"/>
     </row>
-    <row r="1038" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1038" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1038"/>
     </row>
-    <row r="1039" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1039" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1039"/>
     </row>
-    <row r="1040" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1040" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1040"/>
     </row>
-    <row r="1041" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1041" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1041"/>
     </row>
-    <row r="1042" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1042" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1042"/>
     </row>
-    <row r="1043" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1043" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1043"/>
     </row>
-    <row r="1044" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1044" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1044"/>
     </row>
-    <row r="1045" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1045" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1045"/>
     </row>
-    <row r="1046" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1046" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1046"/>
     </row>
-    <row r="1047" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1047" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1047"/>
     </row>
-    <row r="1048" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1048" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1048"/>
     </row>
-    <row r="1049" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1049" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1049"/>
     </row>
-    <row r="1050" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1050" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1050"/>
     </row>
-    <row r="1051" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1051" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1051"/>
     </row>
-    <row r="1052" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1052" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1052"/>
     </row>
-    <row r="1053" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1053" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1053"/>
     </row>
-    <row r="1054" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1054" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1054"/>
     </row>
-    <row r="1055" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1055" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1055"/>
     </row>
-    <row r="1056" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1056" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1056"/>
     </row>
-    <row r="1057" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1057" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1057"/>
     </row>
-    <row r="1058" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1058" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1058"/>
     </row>
-    <row r="1059" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1059" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1059"/>
     </row>
-    <row r="1060" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1060" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1060"/>
     </row>
-    <row r="1061" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1061" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1061"/>
     </row>
-    <row r="1062" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1062" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1062"/>
     </row>
-    <row r="1063" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1063" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1063"/>
     </row>
-    <row r="1064" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1064" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1064"/>
     </row>
-    <row r="1065" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1065" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1065"/>
     </row>
-    <row r="1066" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1066" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1066"/>
     </row>
-    <row r="1067" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1067" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1067"/>
     </row>
-    <row r="1068" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1068" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1068"/>
     </row>
-    <row r="1069" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1069" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1069"/>
     </row>
-    <row r="1070" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1070" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1070"/>
     </row>
-    <row r="1071" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1071" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1071"/>
     </row>
-    <row r="1072" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1072" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1072"/>
     </row>
-    <row r="1073" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1073" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1073"/>
     </row>
-    <row r="1074" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1074" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1074"/>
     </row>
-    <row r="1075" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1075" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1075"/>
     </row>
-    <row r="1076" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1076" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1076"/>
     </row>
-    <row r="1077" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1077" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1077"/>
     </row>
-    <row r="1078" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1078" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1078"/>
     </row>
-    <row r="1079" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1079" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1079"/>
     </row>
-    <row r="1080" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1080" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1080"/>
     </row>
-    <row r="1081" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1081" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1081"/>
     </row>
-    <row r="1082" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1082" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1082"/>
     </row>
-    <row r="1083" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1083" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1083"/>
     </row>
-    <row r="1084" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1084" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1084"/>
     </row>
-    <row r="1085" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1085" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1085"/>
     </row>
-    <row r="1086" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1086" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1086"/>
     </row>
-    <row r="1087" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1087" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1087"/>
     </row>
-    <row r="1088" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1088" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1088"/>
     </row>
-    <row r="1089" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1089" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1089"/>
     </row>
-    <row r="1090" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1090" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1090"/>
     </row>
-    <row r="1091" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1091" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1091"/>
     </row>
-    <row r="1092" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1092" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1092"/>
     </row>
-    <row r="1093" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1093" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1093"/>
     </row>
-    <row r="1094" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1094" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1094"/>
     </row>
-    <row r="1095" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1095" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1095"/>
     </row>
-    <row r="1096" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1096" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1096"/>
     </row>
-    <row r="1097" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1097" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1097"/>
     </row>
-    <row r="1098" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1098" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1098"/>
     </row>
-    <row r="1099" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1099" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1099"/>
     </row>
-    <row r="1100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1100"/>
     </row>
-    <row r="1101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1101"/>
     </row>
-    <row r="1102" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1102"/>
     </row>
-    <row r="1103" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1103"/>
     </row>
-    <row r="1104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1104"/>
     </row>
-    <row r="1105" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1105"/>
     </row>
-    <row r="1106" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1106"/>
     </row>
-    <row r="1107" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1107"/>
     </row>
-    <row r="1108" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1108"/>
     </row>
-    <row r="1109" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1109"/>
     </row>
-    <row r="1110" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1110"/>
     </row>
-    <row r="1111" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1111"/>
     </row>
-    <row r="1112" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1112"/>
     </row>
-    <row r="1113" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1113"/>
     </row>
-    <row r="1114" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1114"/>
     </row>
-    <row r="1115" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1115"/>
     </row>
-    <row r="1116" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1116"/>
     </row>
-    <row r="1117" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1117"/>
     </row>
-    <row r="1118" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1118"/>
     </row>
-    <row r="1119" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1119"/>
     </row>
-    <row r="1120" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1120"/>
     </row>
-    <row r="1121" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1121"/>
     </row>
-    <row r="1122" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1122"/>
     </row>
-    <row r="1123" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1123"/>
     </row>
-    <row r="1124" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1124"/>
     </row>
-    <row r="1125" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1125"/>
     </row>
-    <row r="1126" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1126"/>
     </row>
-    <row r="1127" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1127"/>
     </row>
-    <row r="1128" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1128"/>
     </row>
-    <row r="1129" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1129"/>
     </row>
-    <row r="1130" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1130"/>
     </row>
-    <row r="1131" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1131"/>
     </row>
-    <row r="1132" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1132"/>
     </row>
-    <row r="1133" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1133"/>
     </row>
-    <row r="1134" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1134"/>
     </row>
-    <row r="1135" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1135"/>
     </row>
-    <row r="1136" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1136"/>
     </row>
-    <row r="1137" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1137"/>
     </row>
-    <row r="1138" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1138"/>
     </row>
-    <row r="1139" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1139"/>
     </row>
-    <row r="1140" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1140"/>
     </row>
-    <row r="1141" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1141"/>
     </row>
-    <row r="1142" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1142"/>
     </row>
-    <row r="1143" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1143"/>
     </row>
-    <row r="1144" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1144"/>
     </row>
-    <row r="1145" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1145"/>
     </row>
-    <row r="1146" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1146"/>
     </row>
-    <row r="1147" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1147"/>
     </row>
-    <row r="1148" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1148"/>
     </row>
-    <row r="1149" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1149"/>
     </row>
-    <row r="1150" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1150"/>
     </row>
-    <row r="1151" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1151"/>
     </row>
-    <row r="1152" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1152"/>
     </row>
-    <row r="1153" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1153"/>
     </row>
-    <row r="1154" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1154"/>
     </row>
-    <row r="1155" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1155"/>
     </row>
-    <row r="1156" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1156"/>
     </row>
-    <row r="1157" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1157"/>
     </row>
-    <row r="1158" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1158"/>
     </row>
-    <row r="1159" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1159"/>
     </row>
-    <row r="1160" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1160"/>
     </row>
-    <row r="1161" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1161"/>
     </row>
-    <row r="1162" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1162"/>
     </row>
-    <row r="1163" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1163"/>
     </row>
-    <row r="1164" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1164"/>
     </row>
-    <row r="1165" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1165"/>
     </row>
-    <row r="1166" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1166"/>
     </row>
-    <row r="1167" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1167"/>
     </row>
-    <row r="1168" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1168"/>
     </row>
-    <row r="1169" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1169"/>
     </row>
-    <row r="1170" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1170"/>
     </row>
-    <row r="1171" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1171"/>
     </row>
-    <row r="1172" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1172"/>
     </row>
-    <row r="1173" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1173"/>
     </row>
-    <row r="1174" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1174"/>
     </row>
-    <row r="1175" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1175"/>
     </row>
-    <row r="1176" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1176"/>
     </row>
-    <row r="1177" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1177"/>
     </row>
-    <row r="1178" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1178"/>
     </row>
-    <row r="1179" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1179"/>
     </row>
-    <row r="1180" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1180"/>
     </row>
-    <row r="1181" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1181"/>
     </row>
-    <row r="1182" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1182"/>
     </row>
-    <row r="1183" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1183"/>
     </row>
-    <row r="1184" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1184"/>
     </row>
-    <row r="1185" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1185"/>
     </row>
-    <row r="1186" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1186"/>
     </row>
-    <row r="1187" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1187"/>
     </row>
-    <row r="1188" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1188"/>
     </row>
-    <row r="1189" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1189"/>
     </row>
-    <row r="1190" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1190"/>
     </row>
-    <row r="1191" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1191"/>
     </row>
-    <row r="1192" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1192"/>
     </row>
-    <row r="1193" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1193"/>
     </row>
-    <row r="1194" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1194"/>
     </row>
-    <row r="1195" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1195"/>
     </row>
-    <row r="1196" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1196"/>
     </row>
-    <row r="1197" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1197"/>
     </row>
-    <row r="1198" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1198"/>
     </row>
-    <row r="1199" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1199"/>
     </row>
-    <row r="1200" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1200"/>
     </row>
-    <row r="1201" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1201"/>
     </row>
   </sheetData>
@@ -10453,25 +10541,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D2184E-4503-4924-8968-A3B1F308403F}">
   <dimension ref="A1:M371"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="F9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="51.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.21875" style="1"/>
     <col min="6" max="6" width="11" style="29" customWidth="1"/>
-    <col min="7" max="8" width="9.1796875" style="29"/>
-    <col min="9" max="9" width="9.1796875" style="34"/>
-    <col min="10" max="10" width="11.81640625" style="35" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="35" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="35"/>
+    <col min="7" max="8" width="9.21875" style="29"/>
+    <col min="9" max="9" width="9.21875" style="34"/>
+    <col min="10" max="10" width="11.77734375" style="35" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="35" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>50</v>
       </c>
@@ -10512,7 +10600,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>56</v>
       </c>
@@ -10554,7 +10642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>57</v>
       </c>
@@ -10596,7 +10684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>58</v>
       </c>
@@ -10638,7 +10726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>59</v>
       </c>
@@ -10680,7 +10768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>60</v>
       </c>
@@ -10722,7 +10810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>61</v>
       </c>
@@ -10764,7 +10852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>62</v>
       </c>
@@ -10806,7 +10894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>63</v>
       </c>
@@ -10848,7 +10936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>64</v>
       </c>
@@ -10890,7 +10978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>65</v>
       </c>
@@ -10932,7 +11020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>66</v>
       </c>
@@ -10974,7 +11062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>67</v>
       </c>
@@ -11016,7 +11104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>68</v>
       </c>
@@ -11058,7 +11146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>69</v>
       </c>
@@ -11100,7 +11188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16">
         <f t="shared" ref="B16:L16" si="1">SUM(B2:B15)</f>
         <v>9</v>
@@ -11146,7 +11234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>70</v>
       </c>
@@ -11165,7 +11253,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>72</v>
       </c>
@@ -11185,7 +11273,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -11198,7 +11286,7 @@
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -11211,7 +11299,7 @@
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -11228,7 +11316,7 @@
       </c>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -11243,7 +11331,7 @@
       </c>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -11256,7 +11344,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -11269,7 +11357,7 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -11287,7 +11375,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -11300,7 +11388,7 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -11318,7 +11406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -11331,7 +11419,7 @@
       <c r="K28"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -11344,7 +11432,7 @@
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -11357,7 +11445,7 @@
       <c r="K30"/>
       <c r="L30"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -11370,7 +11458,7 @@
       <c r="K31"/>
       <c r="L31"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -11383,345 +11471,345 @@
       <c r="K32"/>
       <c r="L32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="129" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="131" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="132" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="133" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="134" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="135" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="140" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="141" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="142" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="143" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="156" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="157" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="158" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="159" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="160" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="165" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="166" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="167" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="168" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="169" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="170" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="171" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="172" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="173" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="175" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="176" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="184" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="185" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="186" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="187" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="188" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="189" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="190" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="191" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="192" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="193" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="194" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="195" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="196" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="197" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="198" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="199" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="200" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="202" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="203" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="204" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="205" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="206" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="207" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="208" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="209" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="210" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="211" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="212" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="213" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="214" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="215" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="216" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="217" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="218" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="219" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="220" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="221" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="222" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="223" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="224" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="225" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="226" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="227" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="228" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="229" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="230" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="231" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="232" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="233" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="234" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="235" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="236" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="237" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="238" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="239" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="240" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="241" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="242" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="243" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="244" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="245" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="246" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="247" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="248" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="249" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="250" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="251" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="252" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="253" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="254" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="255" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="256" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="257" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="258" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="259" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="260" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="261" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="262" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="263" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="264" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="265" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="266" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="267" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="268" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="269" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="270" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="271" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="272" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="273" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="274" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="275" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="276" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="277" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="278" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="279" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="280" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="281" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="282" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="283" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="284" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="285" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="286" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="287" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="288" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="289" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="290" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="291" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="292" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="293" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="294" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="295" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="296" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="297" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="298" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="299" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="300" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="301" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="302" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="303" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="304" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="305" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="306" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="307" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="308" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="309" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="310" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="311" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="312" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="313" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="314" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="315" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="316" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="317" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="318" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="319" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="320" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="321" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="322" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="323" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="324" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="325" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="326" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="327" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="328" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="329" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="330" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="331" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="332" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="333" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="334" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="335" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="336" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="337" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="338" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="339" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="340" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="341" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="342" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="343" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="344" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="345" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="346" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="347" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="348" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="349" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="350" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="351" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="352" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="353" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="354" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="355" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="356" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="357" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="358" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="359" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="360" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="361" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="362" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="363" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="364" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="365" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="366" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="367" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="368" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="369" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="370" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="371" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="263" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="264" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="265" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="267" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="268" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="270" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="272" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="273" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="274" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="275" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="276" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="277" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="278" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="279" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="280" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="281" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="282" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="283" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="284" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="285" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="286" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="287" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="288" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="289" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="290" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="291" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="292" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="293" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="294" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="295" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="296" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="297" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="298" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="299" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="300" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="301" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="302" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="303" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="304" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="305" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="306" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="307" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="308" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="309" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="310" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="311" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="312" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="313" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="314" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="315" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="316" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="317" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="318" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="319" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="320" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="321" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="322" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="323" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="324" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="325" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="326" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="327" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="328" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="329" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="330" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="331" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="332" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="333" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="334" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="335" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="336" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="337" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="338" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="339" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="340" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="341" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="342" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="343" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="344" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="345" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="346" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="347" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="348" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="349" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="350" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="351" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="352" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="353" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="354" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="355" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="356" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="357" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="358" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="359" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="360" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="361" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="362" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="363" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="364" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="365" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="366" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="367" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="368" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="369" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="370" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="371" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11732,16 +11820,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87159CDF-E43C-4B8F-9DD4-530FF9A2FA0E}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>41</v>
       </c>
@@ -11749,7 +11837,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>77</v>
       </c>
@@ -11760,7 +11848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>19</v>
       </c>
@@ -11771,7 +11859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>52</v>
       </c>
@@ -11782,7 +11870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>53</v>
       </c>
@@ -11793,7 +11881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>17</v>
       </c>
@@ -11804,7 +11892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>21</v>
       </c>
@@ -11815,7 +11903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>18</v>
       </c>
@@ -11826,7 +11914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>51</v>
       </c>
@@ -11837,7 +11925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>16</v>
       </c>
@@ -11848,7 +11936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>14</v>
       </c>
@@ -11859,7 +11947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>20</v>
       </c>
@@ -11870,7 +11958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15">
         <f>SUM(B2:B14)</f>
         <v>57</v>
@@ -11892,19 +11980,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337F52C2-45EB-4395-AC3F-F6128EAF3983}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="20" t="s">
         <v>78</v>
@@ -11937,7 +12025,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>26</v>
       </c>
@@ -11982,7 +12070,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>39</v>
       </c>
@@ -12029,7 +12117,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>30</v>
       </c>
@@ -12055,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>40</v>
       </c>
@@ -12081,7 +12169,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>33</v>
       </c>
@@ -12098,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>36</v>
       </c>
@@ -12115,7 +12203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>38</v>
       </c>
@@ -12132,14 +12220,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="37"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>32</v>
       </c>
@@ -12160,7 +12248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>43</v>
       </c>
@@ -12183,7 +12271,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>42</v>
       </c>
@@ -12200,7 +12288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>45</v>
       </c>
@@ -12217,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
         <v>86</v>
       </c>
@@ -12234,7 +12322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>46</v>
       </c>
@@ -12251,7 +12339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>37</v>
       </c>
@@ -12268,12 +12356,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>95</v>
       </c>
@@ -12295,21 +12383,21 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.453125" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="51.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.21875" style="1"/>
     <col min="6" max="6" width="11" style="29" customWidth="1"/>
-    <col min="7" max="8" width="9.1796875" style="29"/>
-    <col min="9" max="9" width="9.1796875" style="34"/>
-    <col min="10" max="10" width="11.81640625" style="35" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="35" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="35"/>
+    <col min="7" max="8" width="9.21875" style="29"/>
+    <col min="9" max="9" width="9.21875" style="34"/>
+    <col min="10" max="10" width="11.77734375" style="35" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="35" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>88</v>
       </c>
@@ -12350,7 +12438,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -12391,7 +12479,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -12432,7 +12520,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -12473,7 +12561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -12514,7 +12602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -12555,7 +12643,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -12596,7 +12684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -12637,7 +12725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -12678,7 +12766,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>13</v>
       </c>
@@ -12694,7 +12782,7 @@
       <c r="K10" s="51"/>
       <c r="L10" s="51"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -12735,7 +12823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -12776,7 +12864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -12817,7 +12905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -12858,7 +12946,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -12899,7 +12987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -12940,28 +13028,28 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>92</v>
       </c>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
         <v>93</v>
       </c>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
         <v>94</v>
       </c>
@@ -12974,21 +13062,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003177E7B9D9BD934198281E3124B913C6" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c1582feb5dfa6ec1049247bb1dd5b7f8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e6c392bc-8433-4423-be27-d200e5c01457" xmlns:ns4="e8edc2a3-e2fe-40cd-879c-7d535014e658" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44a2f859b9a663c9efa07acc5d8a5399" ns3:_="" ns4:_="">
     <xsd:import namespace="e6c392bc-8433-4423-be27-d200e5c01457"/>
@@ -13173,24 +13246,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54019E4-9C21-4222-B1E8-5896357256C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69DA8EA7-1B37-48A7-99CF-9BBFC140E07C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBD26747-8838-4C5E-B817-7B1930841D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13207,4 +13278,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69DA8EA7-1B37-48A7-99CF-9BBFC140E07C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54019E4-9C21-4222-B1E8-5896357256C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>